--- a/R_campfin/nursing_home/docs/NursingHomeCompare_Revised_Flatfiles/DataMedicareGov_MetadataAllTabs_v23.xlsx
+++ b/R_campfin/nursing_home/docs/NursingHomeCompare_Revised_Flatfiles/DataMedicareGov_MetadataAllTabs_v23.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projects\NH-COMPARE\Data_From_CMS\Monthly Processing\2020 Processing\Files20200101\6Metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanqixu/code/accountability_datacleaning/R_campfin/nursing_home/docs/NursingHomeCompare_Revised_Flatfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2C3E2B-B3A1-2943-B2F6-209E1F0F195C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="9600" windowHeight="8115" tabRatio="832"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18760" windowHeight="18720" tabRatio="832" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisions" sheetId="10" r:id="rId1"/>
@@ -27,7 +28,17 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">SurveySummary!$A:$A,SurveySummary!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2363,7 +2374,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -3254,7 +3265,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="37" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="38" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title 2" xfId="39"/>
+    <cellStyle name="Title 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -3347,6 +3358,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3382,6 +3410,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3557,23 +3602,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="76" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="76" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="88.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="76" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="76" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="88.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>390</v>
       </c>
@@ -3587,7 +3632,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="66" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="66" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="78" t="s">
         <v>658</v>
       </c>
@@ -3601,7 +3646,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="66" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="66" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="78" t="s">
         <v>658</v>
       </c>
@@ -3615,7 +3660,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="66" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="66" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="78" t="s">
         <v>648</v>
       </c>
@@ -3629,7 +3674,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="66" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="66" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="78" t="s">
         <v>648</v>
       </c>
@@ -3643,7 +3688,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="66" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="66" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="78" t="s">
         <v>648</v>
       </c>
@@ -3657,7 +3702,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="66" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="66" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="78" t="s">
         <v>641</v>
       </c>
@@ -3671,7 +3716,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="66" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="66" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="78" t="s">
         <v>641</v>
       </c>
@@ -3685,7 +3730,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="66" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="66" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="78" t="s">
         <v>641</v>
       </c>
@@ -3699,7 +3744,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="66" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="66" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78" t="s">
         <v>635</v>
       </c>
@@ -3713,7 +3758,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="66" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="66" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78" t="s">
         <v>518</v>
       </c>
@@ -3727,7 +3772,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="66" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="66" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="78" t="s">
         <v>518</v>
       </c>
@@ -3741,7 +3786,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="66" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="78" t="s">
         <v>518</v>
       </c>
@@ -3755,7 +3800,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="66" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="78" t="s">
         <v>518</v>
       </c>
@@ -3769,7 +3814,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="66" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="78" t="s">
         <v>518</v>
       </c>
@@ -3783,7 +3828,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="66" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="78" t="s">
         <v>518</v>
       </c>
@@ -3797,7 +3842,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="66" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="66" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="78" t="s">
         <v>518</v>
       </c>
@@ -3811,7 +3856,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="66" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="78" t="s">
         <v>518</v>
       </c>
@@ -3825,7 +3870,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="66" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="78" t="s">
         <v>518</v>
       </c>
@@ -3839,7 +3884,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="66" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="66" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="78" t="s">
         <v>518</v>
       </c>
@@ -3853,7 +3898,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="66" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="66" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A21" s="78" t="s">
         <v>518</v>
       </c>
@@ -3867,7 +3912,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="66" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="78" t="s">
         <v>510</v>
       </c>
@@ -3881,7 +3926,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="66" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="66" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="78" t="s">
         <v>510</v>
       </c>
@@ -3895,7 +3940,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="66" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="81" t="s">
         <v>510</v>
       </c>
@@ -3909,7 +3954,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="66" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="81" t="s">
         <v>507</v>
       </c>
@@ -3923,7 +3968,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="66" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="78" t="s">
         <v>504</v>
       </c>
@@ -3937,7 +3982,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="66" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="66" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="78" t="s">
         <v>502</v>
       </c>
@@ -3951,7 +3996,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="66" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="66" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="56" t="s">
         <v>490</v>
       </c>
@@ -3965,7 +4010,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="66" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="66" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="53" t="s">
         <v>490</v>
       </c>
@@ -3979,7 +4024,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="66" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="66" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="53" t="s">
         <v>385</v>
       </c>
@@ -3993,7 +4038,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="53" t="s">
         <v>385</v>
       </c>
@@ -4007,7 +4052,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="53" t="s">
         <v>385</v>
       </c>
@@ -4021,7 +4066,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="53" t="s">
         <v>385</v>
       </c>
@@ -4035,7 +4080,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="53" t="s">
         <v>385</v>
       </c>
@@ -4049,7 +4094,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="66" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="66" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="53" t="s">
         <v>385</v>
       </c>
@@ -4063,7 +4108,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="57" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="57" customFormat="1" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="53" t="s">
         <v>382</v>
       </c>
@@ -4077,7 +4122,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="53" t="s">
         <v>376</v>
       </c>
@@ -4091,7 +4136,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="53" t="s">
         <v>366</v>
       </c>
@@ -4105,7 +4150,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="53" t="s">
         <v>343</v>
       </c>
@@ -4119,7 +4164,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="53" t="s">
         <v>340</v>
       </c>
@@ -4133,7 +4178,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="56" t="s">
         <v>333</v>
       </c>
@@ -4147,7 +4192,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="53" t="s">
         <v>302</v>
       </c>
@@ -4161,7 +4206,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="44" t="s">
         <v>296</v>
       </c>
@@ -4175,7 +4220,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="44" t="s">
         <v>299</v>
       </c>
@@ -4189,19 +4234,19 @@
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C45" s="54"/>
       <c r="D45" s="54"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C46" s="54"/>
       <c r="D46" s="54"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C47" s="54"/>
       <c r="D47" s="54"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C48" s="54"/>
       <c r="D48" s="54"/>
     </row>
@@ -4212,7 +4257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4220,16 +4265,16 @@
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="46.5" style="12" customWidth="1"/>
     <col min="3" max="3" width="48" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="12"/>
+    <col min="4" max="4" width="47.1640625" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>255</v>
       </c>
@@ -4243,7 +4288,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -4259,7 +4304,7 @@
       <c r="F2" s="66"/>
       <c r="I2" s="66"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>174</v>
       </c>
@@ -4275,7 +4320,7 @@
       <c r="F3" s="66"/>
       <c r="I3" s="66"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>236</v>
       </c>
@@ -4291,7 +4336,7 @@
       <c r="F4" s="66"/>
       <c r="I4" s="66"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>175</v>
       </c>
@@ -4307,7 +4352,7 @@
       <c r="F5" s="66"/>
       <c r="I5" s="66"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>237</v>
       </c>
@@ -4323,7 +4368,7 @@
       <c r="F6" s="66"/>
       <c r="I6" s="66"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>176</v>
       </c>
@@ -4339,7 +4384,7 @@
       <c r="F7" s="66"/>
       <c r="I7" s="66"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>238</v>
       </c>
@@ -4355,7 +4400,7 @@
       <c r="F8" s="66"/>
       <c r="I8" s="66"/>
     </row>
-    <row r="9" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
         <v>8</v>
       </c>
@@ -4371,7 +4416,7 @@
       <c r="F9" s="66"/>
       <c r="I9" s="66"/>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -4387,7 +4432,7 @@
       <c r="F10" s="66"/>
       <c r="I10" s="66"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>164</v>
       </c>
@@ -4403,7 +4448,7 @@
       <c r="F11" s="66"/>
       <c r="I11" s="66"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -4419,7 +4464,7 @@
       <c r="F12" s="66"/>
       <c r="I12" s="66"/>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>104</v>
       </c>
@@ -4435,7 +4480,7 @@
       <c r="F13" s="66"/>
       <c r="I13" s="66"/>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
@@ -4451,7 +4496,7 @@
       <c r="F14" s="66"/>
       <c r="I14" s="66"/>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
@@ -4467,7 +4512,7 @@
       <c r="F15" s="66"/>
       <c r="I15" s="66"/>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="64" t="s">
         <v>580</v>
       </c>
@@ -4483,7 +4528,7 @@
       <c r="F16" s="66"/>
       <c r="I16" s="66"/>
     </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="64" t="s">
         <v>581</v>
       </c>
@@ -4499,7 +4544,7 @@
       <c r="F17" s="66"/>
       <c r="I17" s="66"/>
     </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -4515,7 +4560,7 @@
       <c r="F18" s="66"/>
       <c r="I18" s="66"/>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>89</v>
       </c>
@@ -4531,7 +4576,7 @@
       <c r="F19" s="66"/>
       <c r="I19" s="66"/>
     </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>177</v>
       </c>
@@ -4547,7 +4592,7 @@
       <c r="F20" s="66"/>
       <c r="I20" s="66"/>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>178</v>
       </c>
@@ -4563,7 +4608,7 @@
       <c r="F21" s="66"/>
       <c r="I21" s="66"/>
     </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>179</v>
       </c>
@@ -4579,7 +4624,7 @@
       <c r="F22" s="66"/>
       <c r="I22" s="66"/>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>180</v>
       </c>
@@ -4595,7 +4640,7 @@
       <c r="F23" s="66"/>
       <c r="I23" s="66"/>
     </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>181</v>
       </c>
@@ -4611,7 +4656,7 @@
       <c r="F24" s="66"/>
       <c r="I24" s="66"/>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>182</v>
       </c>
@@ -4627,7 +4672,7 @@
       <c r="F25" s="66"/>
       <c r="I25" s="66"/>
     </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>183</v>
       </c>
@@ -4643,7 +4688,7 @@
       <c r="F26" s="66"/>
       <c r="I26" s="66"/>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>184</v>
       </c>
@@ -4659,7 +4704,7 @@
       <c r="F27" s="66"/>
       <c r="I27" s="66"/>
     </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>185</v>
       </c>
@@ -4675,7 +4720,7 @@
       <c r="F28" s="66"/>
       <c r="I28" s="66"/>
     </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>186</v>
       </c>
@@ -4691,7 +4736,7 @@
       <c r="F29" s="66"/>
       <c r="I29" s="66"/>
     </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>187</v>
       </c>
@@ -4707,7 +4752,7 @@
       <c r="F30" s="66"/>
       <c r="I30" s="66"/>
     </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>188</v>
       </c>
@@ -4723,7 +4768,7 @@
       <c r="F31" s="66"/>
       <c r="I31" s="66"/>
     </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>360</v>
       </c>
@@ -4739,7 +4784,7 @@
       <c r="F32" s="66"/>
       <c r="I32" s="66"/>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>361</v>
       </c>
@@ -4755,7 +4800,7 @@
       <c r="F33" s="66"/>
       <c r="I33" s="66"/>
     </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>592</v>
       </c>
@@ -4771,7 +4816,7 @@
       <c r="F34" s="66"/>
       <c r="I34" s="66"/>
     </row>
-    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>593</v>
       </c>
@@ -4787,7 +4832,7 @@
       <c r="F35" s="66"/>
       <c r="I35" s="66"/>
     </row>
-    <row r="36" spans="1:9" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>362</v>
       </c>
@@ -4803,7 +4848,7 @@
       <c r="F36" s="66"/>
       <c r="I36" s="66"/>
     </row>
-    <row r="37" spans="1:9" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>594</v>
       </c>
@@ -4819,7 +4864,7 @@
       <c r="F37" s="66"/>
       <c r="I37" s="66"/>
     </row>
-    <row r="38" spans="1:9" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>661</v>
       </c>
@@ -4835,7 +4880,7 @@
       <c r="F38" s="66"/>
       <c r="I38" s="66"/>
     </row>
-    <row r="39" spans="1:9" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>363</v>
       </c>
@@ -4851,7 +4896,7 @@
       <c r="F39" s="66"/>
       <c r="I39" s="66"/>
     </row>
-    <row r="40" spans="1:9" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>364</v>
       </c>
@@ -4867,7 +4912,7 @@
       <c r="F40" s="66"/>
       <c r="I40" s="66"/>
     </row>
-    <row r="41" spans="1:9" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>516</v>
       </c>
@@ -4883,7 +4928,7 @@
       <c r="F41" s="66"/>
       <c r="I41" s="66"/>
     </row>
-    <row r="42" spans="1:9" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>595</v>
       </c>
@@ -4899,7 +4944,7 @@
       <c r="F42" s="66"/>
       <c r="I42" s="66"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>173</v>
       </c>
@@ -4913,151 +4958,151 @@
         <v>394</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C44" s="18"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C45" s="18"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C46" s="18"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C47" s="18"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C48" s="18"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="18"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="18"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="18"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="18"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="18"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="18"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="18"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="18"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="18"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="19"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="19"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="19"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="19"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="19"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" s="19"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="19"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="19"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="19"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="19"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="19"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="19"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="19"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="19"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" s="19"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="19"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="19"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="19"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" s="19"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="19"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="19"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" s="19"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" s="19"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="19"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="19"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" s="20"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="20"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" s="20"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" s="20"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" s="20"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" s="20"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="20"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" s="20"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="20"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" s="21"/>
     </row>
   </sheetData>
@@ -5067,20 +5112,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="125.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="125.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="86" t="s">
         <v>575</v>
       </c>
@@ -5088,7 +5133,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="87">
         <v>1</v>
       </c>
@@ -5096,7 +5141,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="87">
         <v>2</v>
       </c>
@@ -5104,7 +5149,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="87">
         <v>3</v>
       </c>
@@ -5112,7 +5157,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="87">
         <v>4</v>
       </c>
@@ -5120,7 +5165,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="87">
         <v>5</v>
       </c>
@@ -5128,7 +5173,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="87">
         <v>6</v>
       </c>
@@ -5136,7 +5181,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="87">
         <v>7</v>
       </c>
@@ -5144,7 +5189,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="87">
         <v>8</v>
       </c>
@@ -5152,7 +5197,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="87">
         <v>9</v>
       </c>
@@ -5160,7 +5205,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="87">
         <v>10</v>
       </c>
@@ -5168,7 +5213,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="87">
         <v>11</v>
       </c>
@@ -5176,7 +5221,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="87">
         <v>12</v>
       </c>
@@ -5184,7 +5229,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="87">
         <v>13</v>
       </c>
@@ -5192,7 +5237,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="87">
         <v>14</v>
       </c>
@@ -5200,7 +5245,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="87">
         <v>15</v>
       </c>
@@ -5208,7 +5253,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="87">
         <v>16</v>
       </c>
@@ -5216,7 +5261,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="87">
         <v>17</v>
       </c>
@@ -5224,7 +5269,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="88">
         <v>18</v>
       </c>
@@ -5232,7 +5277,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="90">
         <v>19</v>
       </c>
@@ -5248,7 +5293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5256,15 +5301,15 @@
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="12" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>590</v>
       </c>
@@ -5278,7 +5323,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="64" t="s">
         <v>235</v>
       </c>
@@ -5293,7 +5338,7 @@
       </c>
       <c r="F2" s="66"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
@@ -5308,7 +5353,7 @@
       </c>
       <c r="F3" s="66"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>151</v>
       </c>
@@ -5323,7 +5368,7 @@
       </c>
       <c r="F4" s="66"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
         <v>2</v>
       </c>
@@ -5338,7 +5383,7 @@
       </c>
       <c r="F5" s="66"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="64" t="s">
         <v>3</v>
       </c>
@@ -5353,7 +5398,7 @@
       </c>
       <c r="F6" s="66"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="64" t="s">
         <v>4</v>
       </c>
@@ -5368,7 +5413,7 @@
       </c>
       <c r="F7" s="66"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="64" t="s">
         <v>263</v>
       </c>
@@ -5383,7 +5428,7 @@
       </c>
       <c r="F8" s="66"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
         <v>256</v>
       </c>
@@ -5398,7 +5443,7 @@
       </c>
       <c r="F9" s="66"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
         <v>257</v>
       </c>
@@ -5413,7 +5458,7 @@
       </c>
       <c r="F10" s="66"/>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="64" t="s">
         <v>29</v>
       </c>
@@ -5428,7 +5473,7 @@
       </c>
       <c r="F11" s="66"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="64" t="s">
         <v>7</v>
       </c>
@@ -5443,7 +5488,7 @@
       </c>
       <c r="F12" s="66"/>
     </row>
-    <row r="13" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="64" t="s">
         <v>8</v>
       </c>
@@ -5458,7 +5503,7 @@
       </c>
       <c r="F13" s="66"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="64" t="s">
         <v>28</v>
       </c>
@@ -5473,7 +5518,7 @@
       </c>
       <c r="F14" s="66"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="64" t="s">
         <v>10</v>
       </c>
@@ -5488,7 +5533,7 @@
       </c>
       <c r="F15" s="66"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="64" t="s">
         <v>43</v>
       </c>
@@ -5503,7 +5548,7 @@
       </c>
       <c r="F16" s="66"/>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="64" t="s">
         <v>11</v>
       </c>
@@ -5518,7 +5563,7 @@
       </c>
       <c r="F17" s="66"/>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="64" t="s">
         <v>12</v>
       </c>
@@ -5533,7 +5578,7 @@
       </c>
       <c r="F18" s="66"/>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="64" t="s">
         <v>636</v>
       </c>
@@ -5548,7 +5593,7 @@
       </c>
       <c r="F19" s="66"/>
     </row>
-    <row r="20" spans="1:6" s="66" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="66" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="64" t="s">
         <v>649</v>
       </c>
@@ -5562,7 +5607,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="64" t="s">
         <v>336</v>
       </c>
@@ -5577,7 +5622,7 @@
       </c>
       <c r="F21" s="66"/>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="63" t="s">
         <v>14</v>
       </c>
@@ -5592,7 +5637,7 @@
       </c>
       <c r="F22" s="66"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="63" t="s">
         <v>248</v>
       </c>
@@ -5607,7 +5652,7 @@
       </c>
       <c r="F23" s="66"/>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="63" t="s">
         <v>249</v>
       </c>
@@ -5622,7 +5667,7 @@
       </c>
       <c r="F24" s="66"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="64" t="s">
         <v>153</v>
       </c>
@@ -5637,7 +5682,7 @@
       </c>
       <c r="F25" s="66"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="64" t="s">
         <v>34</v>
       </c>
@@ -5652,7 +5697,7 @@
       </c>
       <c r="F26" s="66"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="64" t="s">
         <v>155</v>
       </c>
@@ -5667,7 +5712,7 @@
       </c>
       <c r="F27" s="66"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="64" t="s">
         <v>35</v>
       </c>
@@ -5682,7 +5727,7 @@
       </c>
       <c r="F28" s="66"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="64" t="s">
         <v>156</v>
       </c>
@@ -5697,7 +5742,7 @@
       </c>
       <c r="F29" s="66"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="64" t="s">
         <v>36</v>
       </c>
@@ -5712,7 +5757,7 @@
       </c>
       <c r="F30" s="66"/>
     </row>
-    <row r="31" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="66" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="64" t="s">
         <v>547</v>
       </c>
@@ -5726,7 +5771,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="66" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="64" t="s">
         <v>550</v>
       </c>
@@ -5740,7 +5785,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="66" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="64" t="s">
         <v>548</v>
       </c>
@@ -5754,7 +5799,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="66" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="64" t="s">
         <v>551</v>
       </c>
@@ -5768,7 +5813,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="64" t="s">
         <v>158</v>
       </c>
@@ -5783,7 +5828,7 @@
       </c>
       <c r="F35" s="66"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
         <v>37</v>
       </c>
@@ -5798,7 +5843,7 @@
       </c>
       <c r="F36" s="66"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="s">
         <v>160</v>
       </c>
@@ -5813,7 +5858,7 @@
       </c>
       <c r="F37" s="66"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="64" t="s">
         <v>162</v>
       </c>
@@ -5828,7 +5873,7 @@
       </c>
       <c r="F38" s="66"/>
     </row>
-    <row r="39" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="64" t="s">
         <v>42</v>
       </c>
@@ -5843,7 +5888,7 @@
       </c>
       <c r="F39" s="66"/>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="64" t="s">
         <v>92</v>
       </c>
@@ -5858,7 +5903,7 @@
       </c>
       <c r="F40" s="66"/>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="64" t="s">
         <v>15</v>
       </c>
@@ -5873,7 +5918,7 @@
       </c>
       <c r="F41" s="66"/>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="64" t="s">
         <v>164</v>
       </c>
@@ -5888,7 +5933,7 @@
       </c>
       <c r="F42" s="66"/>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="64" t="s">
         <v>16</v>
       </c>
@@ -5903,7 +5948,7 @@
       </c>
       <c r="F43" s="66"/>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="64" t="s">
         <v>104</v>
       </c>
@@ -5918,7 +5963,7 @@
       </c>
       <c r="F44" s="66"/>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="64" t="s">
         <v>17</v>
       </c>
@@ -5933,7 +5978,7 @@
       </c>
       <c r="F45" s="66"/>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="64" t="s">
         <v>13</v>
       </c>
@@ -5948,7 +5993,7 @@
       </c>
       <c r="F46" s="66"/>
     </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>578</v>
       </c>
@@ -5963,7 +6008,7 @@
       </c>
       <c r="F47" s="66"/>
     </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>579</v>
       </c>
@@ -5978,7 +6023,7 @@
       </c>
       <c r="F48" s="66"/>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>580</v>
       </c>
@@ -5993,7 +6038,7 @@
       </c>
       <c r="F49" s="66"/>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>581</v>
       </c>
@@ -6008,7 +6053,7 @@
       </c>
       <c r="F50" s="66"/>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="64" t="s">
         <v>18</v>
       </c>
@@ -6023,7 +6068,7 @@
       </c>
       <c r="F51" s="66"/>
     </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="64" t="s">
         <v>20</v>
       </c>
@@ -6038,7 +6083,7 @@
       </c>
       <c r="F52" s="66"/>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="64" t="s">
         <v>19</v>
       </c>
@@ -6053,7 +6098,7 @@
       </c>
       <c r="F53" s="66"/>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="64" t="s">
         <v>21</v>
       </c>
@@ -6068,7 +6113,7 @@
       </c>
       <c r="F54" s="66"/>
     </row>
-    <row r="55" spans="1:6" s="65" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="65" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A55" s="64" t="s">
         <v>169</v>
       </c>
@@ -6083,7 +6128,7 @@
       </c>
       <c r="F55" s="66"/>
     </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="64" t="s">
         <v>166</v>
       </c>
@@ -6098,7 +6143,7 @@
       </c>
       <c r="F56" s="66"/>
     </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="64" t="s">
         <v>134</v>
       </c>
@@ -6113,7 +6158,7 @@
       </c>
       <c r="F57" s="66"/>
     </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="64" t="s">
         <v>167</v>
       </c>
@@ -6128,7 +6173,7 @@
       </c>
       <c r="F58" s="66"/>
     </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="64" t="s">
         <v>168</v>
       </c>
@@ -6143,7 +6188,7 @@
       </c>
       <c r="F59" s="66"/>
     </row>
-    <row r="60" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="64" t="s">
         <v>409</v>
       </c>
@@ -6158,7 +6203,7 @@
       </c>
       <c r="F60" s="66"/>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="64" t="s">
         <v>410</v>
       </c>
@@ -6173,7 +6218,7 @@
       </c>
       <c r="F61" s="66"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="64" t="s">
         <v>411</v>
       </c>
@@ -6188,7 +6233,7 @@
       </c>
       <c r="F62" s="66"/>
     </row>
-    <row r="63" spans="1:6" s="65" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="65" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="64" t="s">
         <v>412</v>
       </c>
@@ -6203,7 +6248,7 @@
       </c>
       <c r="F63" s="66"/>
     </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="64" t="s">
         <v>22</v>
       </c>
@@ -6218,7 +6263,7 @@
       </c>
       <c r="F64" s="66"/>
     </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="64" t="s">
         <v>135</v>
       </c>
@@ -6233,7 +6278,7 @@
       </c>
       <c r="F65" s="66"/>
     </row>
-    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="64" t="s">
         <v>23</v>
       </c>
@@ -6248,7 +6293,7 @@
       </c>
       <c r="F66" s="66"/>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="64" t="s">
         <v>24</v>
       </c>
@@ -6263,7 +6308,7 @@
       </c>
       <c r="F67" s="66"/>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="64" t="s">
         <v>430</v>
       </c>
@@ -6278,7 +6323,7 @@
       </c>
       <c r="F68" s="66"/>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="64" t="s">
         <v>431</v>
       </c>
@@ -6293,7 +6338,7 @@
       </c>
       <c r="F69" s="66"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="64" t="s">
         <v>432</v>
       </c>
@@ -6308,7 +6353,7 @@
       </c>
       <c r="F70" s="66"/>
     </row>
-    <row r="71" spans="1:6" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="66" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="64" t="s">
         <v>543</v>
       </c>
@@ -6322,7 +6367,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="66" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="66" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="64" t="s">
         <v>536</v>
       </c>
@@ -6336,7 +6381,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="66" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="64" t="s">
         <v>537</v>
       </c>
@@ -6350,7 +6395,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="66" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="66" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="64" t="s">
         <v>538</v>
       </c>
@@ -6364,7 +6409,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="66" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="64" t="s">
         <v>539</v>
       </c>
@@ -6378,7 +6423,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" s="66" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="64" t="s">
         <v>540</v>
       </c>
@@ -6392,7 +6437,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="66" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="64" t="s">
         <v>541</v>
       </c>
@@ -6406,7 +6451,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" s="66" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="64" t="s">
         <v>542</v>
       </c>
@@ -6420,7 +6465,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="64" t="s">
         <v>170</v>
       </c>
@@ -6436,7 +6481,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="66"/>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>25</v>
       </c>
@@ -6451,7 +6496,7 @@
       </c>
       <c r="F80" s="66"/>
     </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>26</v>
       </c>
@@ -6466,7 +6511,7 @@
       </c>
       <c r="F81" s="66"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>87</v>
       </c>
@@ -6481,7 +6526,7 @@
       </c>
       <c r="F82" s="66"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>89</v>
       </c>
@@ -6496,7 +6541,7 @@
       </c>
       <c r="F83" s="66"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>91</v>
       </c>
@@ -6511,7 +6556,7 @@
       </c>
       <c r="F84" s="66"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>88</v>
       </c>
@@ -6526,7 +6571,7 @@
       </c>
       <c r="F85" s="66"/>
     </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>172</v>
       </c>
@@ -6541,7 +6586,7 @@
       </c>
       <c r="F86" s="66"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>173</v>
       </c>
@@ -6562,23 +6607,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:D11"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" style="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="51.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>255</v>
       </c>
@@ -6592,7 +6637,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>235</v>
       </c>
@@ -6610,7 +6655,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -6628,7 +6673,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>139</v>
       </c>
@@ -6642,7 +6687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>140</v>
       </c>
@@ -6656,7 +6701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>72</v>
       </c>
@@ -6670,7 +6715,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>141</v>
       </c>
@@ -6684,7 +6729,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>58</v>
       </c>
@@ -6698,7 +6743,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="62" t="s">
         <v>105</v>
       </c>
@@ -6712,7 +6757,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>260</v>
       </c>
@@ -6726,7 +6771,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="66" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="64" t="s">
         <v>653</v>
       </c>
@@ -6740,7 +6785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>261</v>
       </c>
@@ -6754,7 +6799,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>262</v>
       </c>
@@ -6768,7 +6813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>258</v>
       </c>
@@ -6782,7 +6827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="47.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>259</v>
       </c>
@@ -6796,7 +6841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>50</v>
       </c>
@@ -6810,7 +6855,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="166.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>102</v>
       </c>
@@ -6824,7 +6869,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>47</v>
       </c>
@@ -6838,7 +6883,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -6852,7 +6897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>172</v>
       </c>
@@ -6866,7 +6911,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>173</v>
       </c>
@@ -6880,295 +6925,295 @@
         <v>394</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C22" s="19"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C23" s="19"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C24" s="19"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C25" s="19"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C26" s="19"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C27" s="19"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C28" s="19"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C29" s="19"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C30" s="19"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C31" s="18"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C32" s="18"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="18"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="18"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="18"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="18"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="18"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="18"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="18"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="18"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="18"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" s="18"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" s="18"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" s="18"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="19"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="19"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" s="19"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" s="19"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="19"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="19"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="19"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="19"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="19"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="19"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="19"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="19"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="19"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="19"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="19"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="19"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="19"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="19"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" s="19"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="19"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="19"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="19"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="19"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="19"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="19"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="20"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="20"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" s="20"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="20"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="20"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="20"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" s="20"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="20"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="20"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" s="21"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" s="21"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="21"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="21"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" s="21"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="21"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" s="21"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" s="21"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" s="21"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" s="21"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="21"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" s="21"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="21"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" s="21"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" s="21"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" s="21"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" s="21"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" s="21"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" s="21"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" s="21"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" s="21"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" s="21"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="21"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" s="21"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" s="21"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" s="21"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" s="21"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" s="21"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C107" s="21"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C108" s="21"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" s="21"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" s="21"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" s="21"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" s="21"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C113" s="21"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C114" s="21"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C115" s="21"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C116" s="21"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C117" s="21"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C118" s="21"/>
     </row>
   </sheetData>
@@ -7178,7 +7223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7186,15 +7231,15 @@
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" style="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="1" customWidth="1"/>
     <col min="3" max="3" width="41" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>255</v>
       </c>
@@ -7208,7 +7253,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>235</v>
       </c>
@@ -7226,7 +7271,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -7244,7 +7289,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>139</v>
       </c>
@@ -7258,7 +7303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>140</v>
       </c>
@@ -7272,7 +7317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>72</v>
       </c>
@@ -7286,7 +7331,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>141</v>
       </c>
@@ -7300,7 +7345,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>58</v>
       </c>
@@ -7314,7 +7359,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>105</v>
       </c>
@@ -7328,7 +7373,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>260</v>
       </c>
@@ -7342,7 +7387,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="66" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="64" t="s">
         <v>653</v>
       </c>
@@ -7356,7 +7401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>261</v>
       </c>
@@ -7370,7 +7415,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="66" customFormat="1" ht="72.599999999999994" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="66" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>441</v>
       </c>
@@ -7384,7 +7429,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>262</v>
       </c>
@@ -7398,7 +7443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>258</v>
       </c>
@@ -7412,7 +7457,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>259</v>
       </c>
@@ -7426,7 +7471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>50</v>
       </c>
@@ -7440,7 +7485,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="128" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>102</v>
       </c>
@@ -7454,7 +7499,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
@@ -7468,7 +7513,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>45</v>
       </c>
@@ -7482,7 +7527,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>172</v>
       </c>
@@ -7496,7 +7541,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>173</v>
       </c>
@@ -7510,43 +7555,43 @@
         <v>394</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C23" s="19"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C24" s="19"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C25" s="19"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C26" s="19"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C27" s="19"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C28" s="19"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C29" s="19"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C30" s="19"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C31" s="19"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C32" s="18"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C33" s="18"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C34" s="18"/>
     </row>
-    <row r="35" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="18"/>
@@ -7556,7 +7601,7 @@
       <c r="H35"/>
       <c r="I35"/>
     </row>
-    <row r="36" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="18"/>
@@ -7566,7 +7611,7 @@
       <c r="H36"/>
       <c r="I36"/>
     </row>
-    <row r="37" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="18"/>
@@ -7576,7 +7621,7 @@
       <c r="H37"/>
       <c r="I37"/>
     </row>
-    <row r="38" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="18"/>
@@ -7586,7 +7631,7 @@
       <c r="H38"/>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="18"/>
@@ -7596,7 +7641,7 @@
       <c r="H39"/>
       <c r="I39"/>
     </row>
-    <row r="40" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="18"/>
@@ -7606,7 +7651,7 @@
       <c r="H40"/>
       <c r="I40"/>
     </row>
-    <row r="41" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="18"/>
@@ -7616,7 +7661,7 @@
       <c r="H41"/>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="18"/>
@@ -7626,7 +7671,7 @@
       <c r="H42"/>
       <c r="I42"/>
     </row>
-    <row r="43" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="18"/>
@@ -7636,7 +7681,7 @@
       <c r="H43"/>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="18"/>
@@ -7646,7 +7691,7 @@
       <c r="H44"/>
       <c r="I44"/>
     </row>
-    <row r="45" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="18"/>
@@ -7656,7 +7701,7 @@
       <c r="H45"/>
       <c r="I45"/>
     </row>
-    <row r="46" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="19"/>
@@ -7666,7 +7711,7 @@
       <c r="H46"/>
       <c r="I46"/>
     </row>
-    <row r="47" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="19"/>
@@ -7676,7 +7721,7 @@
       <c r="H47"/>
       <c r="I47"/>
     </row>
-    <row r="48" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="19"/>
@@ -7686,7 +7731,7 @@
       <c r="H48"/>
       <c r="I48"/>
     </row>
-    <row r="49" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="19"/>
@@ -7696,7 +7741,7 @@
       <c r="H49"/>
       <c r="I49"/>
     </row>
-    <row r="50" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="19"/>
@@ -7706,7 +7751,7 @@
       <c r="H50"/>
       <c r="I50"/>
     </row>
-    <row r="51" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="19"/>
@@ -7716,7 +7761,7 @@
       <c r="H51"/>
       <c r="I51"/>
     </row>
-    <row r="52" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="19"/>
@@ -7726,7 +7771,7 @@
       <c r="H52"/>
       <c r="I52"/>
     </row>
-    <row r="53" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="19"/>
@@ -7736,7 +7781,7 @@
       <c r="H53"/>
       <c r="I53"/>
     </row>
-    <row r="54" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="19"/>
@@ -7746,7 +7791,7 @@
       <c r="H54"/>
       <c r="I54"/>
     </row>
-    <row r="55" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="19"/>
@@ -7756,7 +7801,7 @@
       <c r="H55"/>
       <c r="I55"/>
     </row>
-    <row r="56" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="19"/>
@@ -7766,7 +7811,7 @@
       <c r="H56"/>
       <c r="I56"/>
     </row>
-    <row r="57" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="19"/>
@@ -7776,7 +7821,7 @@
       <c r="H57"/>
       <c r="I57"/>
     </row>
-    <row r="58" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="19"/>
@@ -7786,7 +7831,7 @@
       <c r="H58"/>
       <c r="I58"/>
     </row>
-    <row r="59" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="19"/>
@@ -7796,7 +7841,7 @@
       <c r="H59"/>
       <c r="I59"/>
     </row>
-    <row r="60" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="19"/>
@@ -7806,7 +7851,7 @@
       <c r="H60"/>
       <c r="I60"/>
     </row>
-    <row r="61" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="19"/>
@@ -7816,7 +7861,7 @@
       <c r="H61"/>
       <c r="I61"/>
     </row>
-    <row r="62" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="19"/>
@@ -7826,7 +7871,7 @@
       <c r="H62"/>
       <c r="I62"/>
     </row>
-    <row r="63" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="19"/>
@@ -7836,7 +7881,7 @@
       <c r="H63"/>
       <c r="I63"/>
     </row>
-    <row r="64" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="19"/>
@@ -7846,7 +7891,7 @@
       <c r="H64"/>
       <c r="I64"/>
     </row>
-    <row r="65" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="19"/>
@@ -7856,7 +7901,7 @@
       <c r="H65"/>
       <c r="I65"/>
     </row>
-    <row r="66" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="19"/>
@@ -7866,7 +7911,7 @@
       <c r="H66"/>
       <c r="I66"/>
     </row>
-    <row r="67" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="19"/>
@@ -7876,7 +7921,7 @@
       <c r="H67"/>
       <c r="I67"/>
     </row>
-    <row r="68" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="19"/>
@@ -7886,7 +7931,7 @@
       <c r="H68"/>
       <c r="I68"/>
     </row>
-    <row r="69" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="19"/>
@@ -7896,7 +7941,7 @@
       <c r="H69"/>
       <c r="I69"/>
     </row>
-    <row r="70" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="19"/>
@@ -7906,7 +7951,7 @@
       <c r="H70"/>
       <c r="I70"/>
     </row>
-    <row r="71" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="20"/>
@@ -7916,7 +7961,7 @@
       <c r="H71"/>
       <c r="I71"/>
     </row>
-    <row r="72" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="20"/>
@@ -7926,7 +7971,7 @@
       <c r="H72"/>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="20"/>
@@ -7936,7 +7981,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="20"/>
@@ -7946,7 +7991,7 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="20"/>
@@ -7956,7 +8001,7 @@
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="20"/>
@@ -7966,7 +8011,7 @@
       <c r="H76"/>
       <c r="I76"/>
     </row>
-    <row r="77" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="20"/>
@@ -7976,7 +8021,7 @@
       <c r="H77"/>
       <c r="I77"/>
     </row>
-    <row r="78" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="20"/>
@@ -7986,7 +8031,7 @@
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="20"/>
@@ -7996,7 +8041,7 @@
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="21"/>
@@ -8006,7 +8051,7 @@
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="21"/>
@@ -8016,7 +8061,7 @@
       <c r="H81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="21"/>
@@ -8026,7 +8071,7 @@
       <c r="H82"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="21"/>
@@ -8036,7 +8081,7 @@
       <c r="H83"/>
       <c r="I83"/>
     </row>
-    <row r="84" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="21"/>
@@ -8046,7 +8091,7 @@
       <c r="H84"/>
       <c r="I84"/>
     </row>
-    <row r="85" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="21"/>
@@ -8056,7 +8101,7 @@
       <c r="H85"/>
       <c r="I85"/>
     </row>
-    <row r="86" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="21"/>
@@ -8066,7 +8111,7 @@
       <c r="H86"/>
       <c r="I86"/>
     </row>
-    <row r="87" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="21"/>
@@ -8076,7 +8121,7 @@
       <c r="H87"/>
       <c r="I87"/>
     </row>
-    <row r="88" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="21"/>
@@ -8086,7 +8131,7 @@
       <c r="H88"/>
       <c r="I88"/>
     </row>
-    <row r="89" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="21"/>
@@ -8096,7 +8141,7 @@
       <c r="H89"/>
       <c r="I89"/>
     </row>
-    <row r="90" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="21"/>
@@ -8106,7 +8151,7 @@
       <c r="H90"/>
       <c r="I90"/>
     </row>
-    <row r="91" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="21"/>
@@ -8116,7 +8161,7 @@
       <c r="H91"/>
       <c r="I91"/>
     </row>
-    <row r="92" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="21"/>
@@ -8126,7 +8171,7 @@
       <c r="H92"/>
       <c r="I92"/>
     </row>
-    <row r="93" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="21"/>
@@ -8136,7 +8181,7 @@
       <c r="H93"/>
       <c r="I93"/>
     </row>
-    <row r="94" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="21"/>
@@ -8146,7 +8191,7 @@
       <c r="H94"/>
       <c r="I94"/>
     </row>
-    <row r="95" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="21"/>
@@ -8156,7 +8201,7 @@
       <c r="H95"/>
       <c r="I95"/>
     </row>
-    <row r="96" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="21"/>
@@ -8166,7 +8211,7 @@
       <c r="H96"/>
       <c r="I96"/>
     </row>
-    <row r="97" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="21"/>
@@ -8176,7 +8221,7 @@
       <c r="H97"/>
       <c r="I97"/>
     </row>
-    <row r="98" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="21"/>
@@ -8186,7 +8231,7 @@
       <c r="H98"/>
       <c r="I98"/>
     </row>
-    <row r="99" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="21"/>
@@ -8196,7 +8241,7 @@
       <c r="H99"/>
       <c r="I99"/>
     </row>
-    <row r="100" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="21"/>
@@ -8206,7 +8251,7 @@
       <c r="H100"/>
       <c r="I100"/>
     </row>
-    <row r="101" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="21"/>
@@ -8216,7 +8261,7 @@
       <c r="H101"/>
       <c r="I101"/>
     </row>
-    <row r="102" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="21"/>
@@ -8226,7 +8271,7 @@
       <c r="H102"/>
       <c r="I102"/>
     </row>
-    <row r="103" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="21"/>
@@ -8236,7 +8281,7 @@
       <c r="H103"/>
       <c r="I103"/>
     </row>
-    <row r="104" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="21"/>
@@ -8246,7 +8291,7 @@
       <c r="H104"/>
       <c r="I104"/>
     </row>
-    <row r="105" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="21"/>
@@ -8256,7 +8301,7 @@
       <c r="H105"/>
       <c r="I105"/>
     </row>
-    <row r="106" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="21"/>
@@ -8266,7 +8311,7 @@
       <c r="H106"/>
       <c r="I106"/>
     </row>
-    <row r="107" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="21"/>
@@ -8276,7 +8321,7 @@
       <c r="H107"/>
       <c r="I107"/>
     </row>
-    <row r="108" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="21"/>
@@ -8286,7 +8331,7 @@
       <c r="H108"/>
       <c r="I108"/>
     </row>
-    <row r="109" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="21"/>
@@ -8296,7 +8341,7 @@
       <c r="H109"/>
       <c r="I109"/>
     </row>
-    <row r="110" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="21"/>
@@ -8306,7 +8351,7 @@
       <c r="H110"/>
       <c r="I110"/>
     </row>
-    <row r="111" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="21"/>
@@ -8316,7 +8361,7 @@
       <c r="H111"/>
       <c r="I111"/>
     </row>
-    <row r="112" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="21"/>
@@ -8326,7 +8371,7 @@
       <c r="H112"/>
       <c r="I112"/>
     </row>
-    <row r="113" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="21"/>
@@ -8336,7 +8381,7 @@
       <c r="H113"/>
       <c r="I113"/>
     </row>
-    <row r="114" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="21"/>
@@ -8346,7 +8391,7 @@
       <c r="H114"/>
       <c r="I114"/>
     </row>
-    <row r="115" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="21"/>
@@ -8356,7 +8401,7 @@
       <c r="H115"/>
       <c r="I115"/>
     </row>
-    <row r="116" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="21"/>
@@ -8366,7 +8411,7 @@
       <c r="H116"/>
       <c r="I116"/>
     </row>
-    <row r="117" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="21"/>
@@ -8376,7 +8421,7 @@
       <c r="H117"/>
       <c r="I117"/>
     </row>
-    <row r="118" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="21"/>
@@ -8386,7 +8431,7 @@
       <c r="H118"/>
       <c r="I118"/>
     </row>
-    <row r="119" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="21"/>
@@ -8403,24 +8448,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="66.140625" customWidth="1"/>
-    <col min="3" max="3" width="65.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="66.1640625" customWidth="1"/>
+    <col min="3" max="3" width="65.5" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>255</v>
       </c>
@@ -8434,7 +8479,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>235</v>
       </c>
@@ -8448,7 +8493,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -8462,7 +8507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>139</v>
       </c>
@@ -8476,7 +8521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>140</v>
       </c>
@@ -8490,7 +8535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>72</v>
       </c>
@@ -8504,7 +8549,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>141</v>
       </c>
@@ -8518,7 +8563,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>102</v>
       </c>
@@ -8532,7 +8577,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>271</v>
       </c>
@@ -8546,7 +8591,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>274</v>
       </c>
@@ -8560,7 +8605,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>275</v>
       </c>
@@ -8574,7 +8619,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>276</v>
       </c>
@@ -8588,7 +8633,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
         <v>449</v>
       </c>
@@ -8602,7 +8647,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>459</v>
       </c>
@@ -8616,7 +8661,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
         <v>452</v>
       </c>
@@ -8630,7 +8675,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>455</v>
       </c>
@@ -8644,7 +8689,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>281</v>
       </c>
@@ -8658,7 +8703,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>279</v>
       </c>
@@ -8672,7 +8717,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>280</v>
       </c>
@@ -8686,7 +8731,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
         <v>278</v>
       </c>
@@ -8700,7 +8745,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
         <v>277</v>
       </c>
@@ -8714,7 +8759,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
         <v>546</v>
       </c>
@@ -8728,7 +8773,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
         <v>294</v>
       </c>
@@ -8742,7 +8787,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
         <v>282</v>
       </c>
@@ -8756,7 +8801,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
         <v>478</v>
       </c>
@@ -8770,7 +8815,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
         <v>283</v>
       </c>
@@ -8784,7 +8829,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
         <v>465</v>
       </c>
@@ -8798,7 +8843,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
         <v>284</v>
       </c>
@@ -8812,7 +8857,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
         <v>285</v>
       </c>
@@ -8826,7 +8871,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="40" t="s">
         <v>286</v>
       </c>
@@ -8840,7 +8885,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="40" t="s">
         <v>480</v>
       </c>
@@ -8854,7 +8899,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
         <v>289</v>
       </c>
@@ -8868,7 +8913,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="40" t="s">
         <v>470</v>
       </c>
@@ -8882,7 +8927,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="40" t="s">
         <v>287</v>
       </c>
@@ -8896,7 +8941,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="40" t="s">
         <v>288</v>
       </c>
@@ -8910,7 +8955,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="40" t="s">
         <v>290</v>
       </c>
@@ -8924,7 +8969,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="40" t="s">
         <v>291</v>
       </c>
@@ -8938,7 +8983,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
         <v>293</v>
       </c>
@@ -8952,7 +8997,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="40" t="s">
         <v>292</v>
       </c>
@@ -8966,7 +9011,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>172</v>
       </c>
@@ -8980,7 +9025,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>173</v>
       </c>
@@ -9001,7 +9046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9009,17 +9054,17 @@
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.5703125" style="2"/>
+    <col min="1" max="1" width="27.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>255</v>
       </c>
@@ -9033,7 +9078,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="64" t="s">
         <v>235</v>
       </c>
@@ -9048,7 +9093,7 @@
       </c>
       <c r="F2" s="66"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
@@ -9063,7 +9108,7 @@
       </c>
       <c r="F3" s="66"/>
     </row>
-    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>139</v>
       </c>
@@ -9078,7 +9123,7 @@
       </c>
       <c r="F4" s="66"/>
     </row>
-    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>140</v>
       </c>
@@ -9093,7 +9138,7 @@
       </c>
       <c r="F5" s="66"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>72</v>
       </c>
@@ -9108,7 +9153,7 @@
       </c>
       <c r="F6" s="66"/>
     </row>
-    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>141</v>
       </c>
@@ -9123,7 +9168,7 @@
       </c>
       <c r="F7" s="66"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>142</v>
       </c>
@@ -9138,7 +9183,7 @@
       </c>
       <c r="F8" s="66"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>143</v>
       </c>
@@ -9153,7 +9198,7 @@
       </c>
       <c r="F9" s="66"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>77</v>
       </c>
@@ -9168,7 +9213,7 @@
       </c>
       <c r="F10" s="66"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
         <v>144</v>
       </c>
@@ -9183,7 +9228,7 @@
       </c>
       <c r="F11" s="66"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>145</v>
       </c>
@@ -9198,7 +9243,7 @@
       </c>
       <c r="F12" s="66"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>146</v>
       </c>
@@ -9213,7 +9258,7 @@
       </c>
       <c r="F13" s="66"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>147</v>
       </c>
@@ -9228,7 +9273,7 @@
       </c>
       <c r="F14" s="66"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>148</v>
       </c>
@@ -9243,7 +9288,7 @@
       </c>
       <c r="F15" s="66"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>149</v>
       </c>
@@ -9258,7 +9303,7 @@
       </c>
       <c r="F16" s="66"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>370</v>
       </c>
@@ -9273,7 +9318,7 @@
       </c>
       <c r="F17" s="66"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>371</v>
       </c>
@@ -9288,7 +9333,7 @@
       </c>
       <c r="F18" s="66"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>368</v>
       </c>
@@ -9303,7 +9348,7 @@
       </c>
       <c r="F19" s="66"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>369</v>
       </c>
@@ -9318,7 +9363,7 @@
       </c>
       <c r="F20" s="66"/>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>150</v>
       </c>
@@ -9333,7 +9378,7 @@
       </c>
       <c r="F21" s="66"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="66" t="s">
         <v>621</v>
       </c>
@@ -9348,7 +9393,7 @@
       </c>
       <c r="F22" s="66"/>
     </row>
-    <row r="23" spans="1:6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>172</v>
       </c>
@@ -9362,7 +9407,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="24" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>173</v>
       </c>
@@ -9376,215 +9421,215 @@
         <v>394</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="19"/>
       <c r="D25" s="28"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="19"/>
       <c r="D26" s="28"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="19"/>
       <c r="D27" s="28"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="19"/>
       <c r="D28" s="28"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="19"/>
       <c r="D29" s="28"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="18"/>
       <c r="D30" s="28"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" s="18"/>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="18"/>
       <c r="D32" s="28"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="18"/>
       <c r="D33" s="28"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="18"/>
       <c r="D34" s="28"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
       <c r="C35" s="18"/>
       <c r="D35" s="28"/>
     </row>
-    <row r="36" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="18"/>
       <c r="D36" s="29"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
       <c r="C37" s="18"/>
       <c r="D37" s="28"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="18"/>
       <c r="D38" s="28"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
       <c r="C39" s="18"/>
       <c r="D39" s="28"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="18"/>
       <c r="D40" s="28"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" s="18"/>
       <c r="D41" s="28"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
       <c r="C42" s="18"/>
       <c r="D42" s="28"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="3"/>
       <c r="C43" s="18"/>
       <c r="D43" s="28"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
       <c r="C44" s="19"/>
       <c r="D44" s="28"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
       <c r="C45" s="19"/>
       <c r="D45" s="28"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="3"/>
       <c r="C46" s="19"/>
       <c r="D46" s="28"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
       <c r="C47" s="19"/>
       <c r="D47" s="28"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C48" s="19"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="19"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="19"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="19"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="19"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="19"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="19"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="19"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="19"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="19"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="19"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="19"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="19"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="19"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="19"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" s="19"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="19"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="19"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="19"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="19"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="19"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="20"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="20"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="20"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" s="20"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="20"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="20"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="20"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" s="20"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="20"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="21"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" s="21"/>
     </row>
   </sheetData>
@@ -9594,7 +9639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9602,16 +9647,16 @@
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" style="30" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="2"/>
+    <col min="4" max="4" width="31.5" style="30" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>255</v>
       </c>
@@ -9625,7 +9670,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>235</v>
       </c>
@@ -9639,7 +9684,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -9653,7 +9698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>139</v>
       </c>
@@ -9667,7 +9712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>140</v>
       </c>
@@ -9681,7 +9726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>72</v>
       </c>
@@ -9695,7 +9740,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:4" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>141</v>
       </c>
@@ -9709,7 +9754,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>142</v>
       </c>
@@ -9723,7 +9768,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>143</v>
       </c>
@@ -9737,7 +9782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>77</v>
       </c>
@@ -9751,7 +9796,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
         <v>346</v>
       </c>
@@ -9765,7 +9810,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>347</v>
       </c>
@@ -9779,7 +9824,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>348</v>
       </c>
@@ -9793,7 +9838,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>349</v>
       </c>
@@ -9807,7 +9852,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>150</v>
       </c>
@@ -9821,7 +9866,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>351</v>
       </c>
@@ -9835,7 +9880,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="17" spans="1:4" customFormat="1" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>172</v>
       </c>
@@ -9849,7 +9894,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="18" spans="1:4" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>173</v>
       </c>
@@ -9863,215 +9908,215 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="17"/>
       <c r="D19" s="28"/>
     </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="19"/>
       <c r="D20" s="28"/>
     </row>
-    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="19"/>
       <c r="D21" s="28"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="19"/>
       <c r="D22" s="28"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="19"/>
       <c r="D23" s="28"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="18"/>
       <c r="D24" s="28"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="18"/>
       <c r="D25" s="28"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="18"/>
       <c r="D26" s="28"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="18"/>
       <c r="D27" s="28"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="18"/>
       <c r="D28" s="28"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="18"/>
       <c r="D29" s="28"/>
     </row>
-    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
       <c r="C30" s="18"/>
       <c r="D30" s="29"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" s="18"/>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="18"/>
       <c r="D32" s="28"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="18"/>
       <c r="D33" s="28"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="18"/>
       <c r="D34" s="28"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
       <c r="C35" s="18"/>
       <c r="D35" s="28"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
       <c r="C36" s="18"/>
       <c r="D36" s="28"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
       <c r="C37" s="18"/>
       <c r="D37" s="28"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="19"/>
       <c r="D38" s="28"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
       <c r="C39" s="19"/>
       <c r="D39" s="28"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="19"/>
       <c r="D40" s="28"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" s="19"/>
       <c r="D41" s="28"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C42" s="19"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C43" s="19"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C44" s="19"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C45" s="19"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C46" s="19"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C47" s="19"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C48" s="19"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="19"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="19"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="19"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="19"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="19"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="19"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="19"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="19"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="19"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="19"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="19"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="19"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="19"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="19"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" s="20"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="20"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="20"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="20"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="20"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="20"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="20"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="20"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="20"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" s="21"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="21"/>
     </row>
   </sheetData>
@@ -10081,22 +10126,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C8" sqref="C8:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="43" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>255</v>
       </c>
@@ -10110,7 +10155,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>235</v>
       </c>
@@ -10124,7 +10169,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -10138,7 +10183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>139</v>
       </c>
@@ -10152,7 +10197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -10166,7 +10211,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -10180,7 +10225,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -10194,7 +10239,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
         <v>304</v>
       </c>
@@ -10208,7 +10253,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="92"/>
       <c r="B9" s="94"/>
       <c r="C9" s="96"/>
@@ -10216,7 +10261,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="92"/>
       <c r="B10" s="94"/>
       <c r="C10" s="96"/>
@@ -10224,7 +10269,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="94"/>
       <c r="C11" s="96"/>
@@ -10232,7 +10277,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="92"/>
       <c r="B12" s="94"/>
       <c r="C12" s="96"/>
@@ -10240,7 +10285,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="92"/>
       <c r="B13" s="94"/>
       <c r="C13" s="96"/>
@@ -10248,7 +10293,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="92"/>
       <c r="B14" s="94"/>
       <c r="C14" s="96"/>
@@ -10256,7 +10301,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="94"/>
       <c r="C15" s="96"/>
@@ -10264,7 +10309,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="92"/>
       <c r="B16" s="94"/>
       <c r="C16" s="96"/>
@@ -10272,7 +10317,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="92"/>
       <c r="B17" s="94"/>
       <c r="C17" s="96"/>
@@ -10280,7 +10325,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92"/>
       <c r="B18" s="95"/>
       <c r="C18" s="96"/>
@@ -10288,7 +10333,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>316</v>
       </c>
@@ -10302,7 +10347,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>320</v>
       </c>
@@ -10316,7 +10361,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>324</v>
       </c>
@@ -10330,7 +10375,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>326</v>
       </c>
@@ -10344,7 +10389,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>172</v>
       </c>
@@ -10358,7 +10403,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>173</v>
       </c>
@@ -10372,215 +10417,215 @@
         <v>394</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="21"/>
       <c r="C25" s="18"/>
       <c r="D25" s="21"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C26" s="18"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C27" s="18"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="C30" s="19"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="C31" s="19"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="C32" s="19"/>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="C33" s="19"/>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="C34" s="19"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="C35" s="19"/>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="C36" s="19"/>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="C37" s="19"/>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="C38" s="19"/>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="C39" s="19"/>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="C40" s="18"/>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="C41" s="18"/>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C42" s="18"/>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C43" s="18"/>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C44" s="18"/>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="18"/>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="18"/>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C47" s="18"/>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C48" s="18"/>
     </row>
-    <row r="49" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="18"/>
     </row>
-    <row r="50" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C50" s="18"/>
     </row>
-    <row r="51" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C51" s="18"/>
     </row>
-    <row r="52" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C52" s="18"/>
     </row>
-    <row r="53" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C53" s="18"/>
     </row>
-    <row r="54" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C54" s="19"/>
     </row>
-    <row r="55" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C55" s="19"/>
     </row>
-    <row r="56" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C56" s="19"/>
     </row>
-    <row r="57" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C57" s="19"/>
     </row>
-    <row r="58" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C58" s="19"/>
     </row>
-    <row r="59" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C59" s="19"/>
     </row>
-    <row r="60" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C60" s="19"/>
     </row>
-    <row r="61" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C61" s="19"/>
     </row>
-    <row r="62" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="19"/>
     </row>
-    <row r="63" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="19"/>
     </row>
-    <row r="64" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C64" s="19"/>
     </row>
-    <row r="65" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C65" s="19"/>
     </row>
-    <row r="66" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C66" s="19"/>
     </row>
-    <row r="67" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C67" s="19"/>
     </row>
-    <row r="68" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C68" s="19"/>
     </row>
-    <row r="69" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C69" s="19"/>
     </row>
-    <row r="70" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C70" s="19"/>
     </row>
-    <row r="71" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C71" s="19"/>
     </row>
-    <row r="72" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C72" s="19"/>
     </row>
-    <row r="73" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C73" s="19"/>
     </row>
-    <row r="74" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C74" s="19"/>
     </row>
-    <row r="75" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C75" s="19"/>
     </row>
-    <row r="76" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C76" s="19"/>
     </row>
-    <row r="77" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C77" s="19"/>
     </row>
-    <row r="78" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C78" s="19"/>
     </row>
-    <row r="79" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C79" s="20"/>
     </row>
-    <row r="80" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C80" s="20"/>
     </row>
-    <row r="81" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C81" s="20"/>
     </row>
-    <row r="82" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C82" s="20"/>
     </row>
-    <row r="83" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C83" s="20"/>
     </row>
-    <row r="84" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C84" s="20"/>
     </row>
-    <row r="85" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C85" s="20"/>
     </row>
-    <row r="86" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C86" s="20"/>
     </row>
-    <row r="87" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C87" s="20"/>
     </row>
-    <row r="88" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C88" s="21"/>
     </row>
   </sheetData>
@@ -10595,22 +10640,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:G65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="55" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>255</v>
       </c>
@@ -10624,7 +10669,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>235</v>
       </c>
@@ -10638,7 +10683,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -10652,7 +10697,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>139</v>
       </c>
@@ -10666,7 +10711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>140</v>
       </c>
@@ -10680,7 +10725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>72</v>
       </c>
@@ -10694,7 +10739,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>141</v>
       </c>
@@ -10708,7 +10753,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>94</v>
       </c>
@@ -10722,7 +10767,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>95</v>
       </c>
@@ -10736,7 +10781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>96</v>
       </c>
@@ -10750,7 +10795,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>97</v>
       </c>
@@ -10764,7 +10809,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>98</v>
       </c>
@@ -10778,7 +10823,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>172</v>
       </c>
@@ -10792,7 +10837,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>173</v>
       </c>
@@ -10806,219 +10851,219 @@
         <v>394</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="18"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" s="18"/>
     </row>
-    <row r="17" spans="3:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="18"/>
     </row>
-    <row r="18" spans="3:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="19"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="19"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="19"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="19"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="19"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="19"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="19"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="19"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" s="19"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" s="18"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" s="18"/>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C32" s="18"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="18"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="18"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="18"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="18"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="18"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="18"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="18"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="18"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="18"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" s="18"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" s="18"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" s="19"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="19"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="19"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" s="19"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" s="19"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="19"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="19"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="19"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="19"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="19"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="19"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="19"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="19"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="19"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="19"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="19"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="19"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="19"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="19"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" s="19"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="19"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="19"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="19"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="19"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="19"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="20"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="20"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="20"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" s="20"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="20"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="20"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="20"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" s="20"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="20"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="21"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" s="21"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" s="21"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="21"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="21"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" s="21"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="21"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" s="21"/>
     </row>
   </sheetData>
